--- a/clojure-projects/src/ica/data.xlsx
+++ b/clojure-projects/src/ica/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2024\clojure-projects\src\clojure_projects\ica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2404\clojure-projects\src\ica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27324917-979F-4867-AC5A-533FBD4C23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51572975-721F-4366-98A8-C47678AC6F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>City</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Truck Number</t>
+  </si>
+  <si>
+    <t>Kory David DeJong</t>
+  </si>
+  <si>
+    <t>Matvii Kharchenko</t>
+  </si>
+  <si>
+    <t>Divan Wayne Ingram</t>
+  </si>
+  <si>
+    <t>Burak Ugar</t>
   </si>
 </sst>
 </file>
@@ -717,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D4F94F-961B-4669-90C3-16E30A1031FB}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,6 +739,7 @@
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -772,6 +785,9 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -786,6 +802,9 @@
       <c r="D3">
         <v>200</v>
       </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -800,6 +819,9 @@
       <c r="D4">
         <v>100</v>
       </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -813,6 +835,9 @@
       </c>
       <c r="D5">
         <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1092,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1092226F-A661-4783-85A9-DD530D81C1ED}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/clojure-projects/src/ica/data.xlsx
+++ b/clojure-projects/src/ica/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2404\clojure-projects\src\ica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51572975-721F-4366-98A8-C47678AC6F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA485-3912-47EF-B82E-4D73396EFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>City</t>
   </si>
@@ -144,6 +144,33 @@
   </si>
   <si>
     <t>Burak Ugar</t>
+  </si>
+  <si>
+    <t>Nokulunga Motsweni</t>
+  </si>
+  <si>
+    <t>Dawid Piorkowski</t>
+  </si>
+  <si>
+    <t>Alex Janik</t>
+  </si>
+  <si>
+    <t>Dren Krasniqi</t>
+  </si>
+  <si>
+    <t>Anfisa Bormotina</t>
+  </si>
+  <si>
+    <t>Ahmed Khaled Ibrahem Ali Allam</t>
+  </si>
+  <si>
+    <t>Daniil Khmelnytskyi</t>
+  </si>
+  <si>
+    <t>Oleksandr Markov</t>
+  </si>
+  <si>
+    <t>Teo Bocev</t>
   </si>
 </sst>
 </file>
@@ -729,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D4F94F-961B-4669-90C3-16E30A1031FB}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -940,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA2D340-E768-47D7-A5AD-09738DADBB88}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,6 +1023,9 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1010,6 +1040,9 @@
       <c r="D3">
         <v>100</v>
       </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1024,6 +1057,9 @@
       <c r="D4">
         <v>150</v>
       </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1037,6 +1073,9 @@
       </c>
       <c r="D5">
         <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1117,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1092226F-A661-4783-85A9-DD530D81C1ED}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,6 +1212,9 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1187,6 +1229,9 @@
       <c r="D3">
         <v>100</v>
       </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1201,6 +1246,9 @@
       <c r="D4">
         <v>100</v>
       </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1215,6 +1263,9 @@
       <c r="D5">
         <v>100</v>
       </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1228,6 +1279,9 @@
       </c>
       <c r="D6">
         <v>250</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/clojure-projects/src/ica/data.xlsx
+++ b/clojure-projects/src/ica/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2404\clojure-projects\src\ica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA485-3912-47EF-B82E-4D73396EFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E24A31-C8AD-4D6B-9054-7DA155B36EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>City</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Teo Bocev</t>
+  </si>
+  <si>
+    <t>Kirill Shulyak</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +663,9 @@
       </c>
       <c r="D6">
         <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -967,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA2D340-E768-47D7-A5AD-09738DADBB88}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1097,9 @@
       <c r="D6">
         <v>50</v>
       </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1157,7 +1166,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1279,9 +1288,6 @@
       </c>
       <c r="D6">
         <v>250</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/clojure-projects/src/ica/data.xlsx
+++ b/clojure-projects/src/ica/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2404\clojure-projects\src\ica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E24A31-C8AD-4D6B-9054-7DA155B36EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BC1CE-7D2D-4C33-8A45-AF2C5D3F9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA2D340-E768-47D7-A5AD-09738DADBB88}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,6 +984,7 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1096,9 +1097,6 @@
       </c>
       <c r="D6">
         <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1165,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1092226F-A661-4783-85A9-DD530D81C1ED}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1289,6 +1287,9 @@
       <c r="D6">
         <v>250</v>
       </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">

--- a/clojure-projects/src/ica/data.xlsx
+++ b/clojure-projects/src/ica/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2404\clojure-projects\src\ica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BC1CE-7D2D-4C33-8A45-AF2C5D3F9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D0FE1-F62D-422A-A7B8-600DC1DAE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFB9042F-2CAF-4781-AD5D-9F737D043F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>City</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Kirill Shulyak</t>
+  </si>
+  <si>
+    <t>Trucks positions (ICA 2)</t>
+  </si>
+  <si>
+    <t>Munich x 2</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209A32C-8817-4C9E-B96E-F3DE51B81AE3}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,11 +709,17 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -715,6 +727,9 @@
       </c>
       <c r="B13">
         <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -763,7 +778,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,11 +923,17 @@
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -921,6 +942,9 @@
       <c r="B12">
         <v>40</v>
       </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -928,6 +952,9 @@
       </c>
       <c r="B13">
         <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -974,7 +1001,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,10 +1133,16 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,12 +1196,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1092226F-A661-4783-85A9-DD530D81C1ED}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
@@ -1298,11 +1332,17 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1311,6 +1351,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1318,6 +1361,9 @@
       </c>
       <c r="B12">
         <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
